--- a/금칙어 리스트.xlsx
+++ b/금칙어 리스트.xlsx
@@ -1629,20 +1629,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>문의</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>얘기</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>안내</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>컨설팅</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>문의</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>안내</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2351,22 +2355,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>증세</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>이런 느낌</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>몸 상태</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>현상</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>그런 모습</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>몸 상태</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>느껴지는 부분</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2942,17 +2946,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>부.작용</t>
+          <t>안 좋은 반응</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>부정적 반응</t>
+          <t>부정적인 면</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>안 좋은 반응</t>
+          <t>걱정되는 점</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3089,22 +3093,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>증세</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>이런 느낌</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>몸 상태</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>현상</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>그런 모습</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>몸 상태</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>느껴지는 부분</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>

--- a/금칙어 리스트.xlsx
+++ b/금칙어 리스트.xlsx
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>산부인.과</t>
+          <t>병원</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
